--- a/ig/sd-phase-de-lessai-creation-conceptmap/eclaire-study-phase-concept-map.xlsx
+++ b/ig/sd-phase-de-lessai-creation-conceptmap/eclaire-study-phase-concept-map.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="52">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-30T14:09:22+00:00</t>
+    <t>2023-08-31T07:32:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -108,10 +108,19 @@
     <t/>
   </si>
   <si>
+    <t>jarde-early</t>
+  </si>
+  <si>
+    <t>equivalent</t>
+  </si>
+  <si>
+    <t>phase-1-phase-2</t>
+  </si>
+  <si>
     <t>phase-I-first-admin</t>
   </si>
   <si>
-    <t>equivalent</t>
+    <t>source-is-narrower-than-target</t>
   </si>
   <si>
     <t>phase-1</t>
@@ -124,9 +133,6 @@
   </si>
   <si>
     <t>phase-I-II-first-admin</t>
-  </si>
-  <si>
-    <t>phase-1-phase-2</t>
   </si>
   <si>
     <t>phase-I-II-first-bioequivalence</t>
@@ -429,7 +435,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -488,75 +494,75 @@
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D5" t="s" s="2">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D6" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E6" s="2"/>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D7" t="s" s="2">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E7" s="2"/>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D8" t="s" s="2">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E8" s="2"/>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D9" t="s" s="2">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="E9" s="2"/>
     </row>
@@ -611,6 +617,19 @@
         <v>49</v>
       </c>
       <c r="E13" s="2"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="D14" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="E14" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/ig/sd-phase-de-lessai-creation-conceptmap/eclaire-study-phase-concept-map.xlsx
+++ b/ig/sd-phase-de-lessai-creation-conceptmap/eclaire-study-phase-concept-map.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="52">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-31T07:32:14+00:00</t>
+    <t>2023-08-31T13:15:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,6 +114,9 @@
     <t>equivalent</t>
   </si>
   <si>
+    <t>phase-1</t>
+  </si>
+  <si>
     <t>phase-1-phase-2</t>
   </si>
   <si>
@@ -121,9 +124,6 @@
   </si>
   <si>
     <t>source-is-narrower-than-target</t>
-  </si>
-  <si>
-    <t>phase-1</t>
   </si>
   <si>
     <t>phase-I-bioequivalence</t>
@@ -435,7 +435,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -490,50 +490,50 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D5" t="s" s="2">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D6" t="s" s="2">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E6" s="2"/>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D7" t="s" s="2">
         <v>33</v>
@@ -542,94 +542,107 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D8" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E8" s="2"/>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D9" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E9" s="2"/>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D10" t="s" s="2">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="E10" s="2"/>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
         <v>32</v>
       </c>
       <c r="D11" t="s" s="2">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E11" s="2"/>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
         <v>32</v>
       </c>
       <c r="D12" t="s" s="2">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
         <v>32</v>
       </c>
       <c r="D13" t="s" s="2">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
         <v>32</v>
       </c>
       <c r="D14" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="D15" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="E14" s="2"/>
+      <c r="E15" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/ig/sd-phase-de-lessai-creation-conceptmap/eclaire-study-phase-concept-map.xlsx
+++ b/ig/sd-phase-de-lessai-creation-conceptmap/eclaire-study-phase-concept-map.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-31T13:15:07+00:00</t>
+    <t>2023-08-31T14:29:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
